--- a/assignment 2/data/count_house_type.xlsx
+++ b/assignment 2/data/count_house_type.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{154381A5-A35C-4974-AFF0-6D7F3A7C69FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B455FCC-69B8-4927-992A-D8892A7C71A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5430" yWindow="2865" windowWidth="19695" windowHeight="13950" xr2:uid="{D980C74E-9885-4706-BF28-40B061BAC1EB}"/>
+    <workbookView xWindow="3120" yWindow="2250" windowWidth="19695" windowHeight="13950" xr2:uid="{D980C74E-9885-4706-BF28-40B061BAC1EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,9 +37,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Count</t>
-  </si>
-  <si>
     <t>Year</t>
   </si>
   <si>
@@ -50,6 +47,9 @@
   </si>
   <si>
     <t>Townhouse</t>
+  </si>
+  <si>
+    <t>House Sold</t>
   </si>
 </sst>
 </file>
@@ -404,7 +404,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -414,15 +414,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>7249</v>
@@ -433,7 +433,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>1701</v>
@@ -444,7 +444,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>833</v>
@@ -455,7 +455,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>10884</v>
@@ -466,7 +466,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>2440</v>
@@ -477,7 +477,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>1377</v>
@@ -488,7 +488,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8">
         <v>6732</v>
@@ -499,7 +499,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9">
         <v>1845</v>
@@ -510,7 +510,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10">
         <v>1002</v>
